--- a/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Query/CurveViewerPOC.xlsx
+++ b/FpML.V5r3.Applications/ExcelAPI/Spreadsheets/Query/CurveViewerPOC.xlsx
@@ -1,23 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2017\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Query\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Visual Studio 2019\Projects\Highlander\FpML.V5r3.Applications\ExcelAPI\Spreadsheets\Query\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5488CF4-C4AD-473B-B4DD-6C807E4357E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECEE1685-C4BD-4BA9-965B-967F1B6ABAC0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2415" yWindow="0" windowWidth="26370" windowHeight="14820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -696,7 +704,7 @@
       </c>
       <c r="C7" s="15">
         <f ca="1">TODAY()</f>
-        <v>43215</v>
+        <v>43647</v>
       </c>
       <c r="I7" s="1"/>
     </row>
@@ -721,7 +729,7 @@
       </c>
       <c r="C9" s="18">
         <f ca="1">TODAY()-1</f>
-        <v>43214</v>
+        <v>43646</v>
       </c>
       <c r="H9" s="1"/>
     </row>
@@ -792,37 +800,37 @@
         <v>None</v>
       </c>
       <c r="D12" t="str">
-        <v>Linear</v>
+        <v>LinearSpreadZero</v>
       </c>
       <c r="E12" t="str">
-        <v>30/03/2018</v>
+        <v>30/08/2010</v>
       </c>
       <c r="F12" t="str">
-        <v>30/03/2018</v>
+        <v>1/01/0001</v>
       </c>
       <c r="G12" t="str">
-        <v>Parent</v>
+        <v>Unknown</v>
       </c>
       <c r="H12" t="str">
-        <v>AUD-BBR-BBSW-1Y</v>
+        <v>AUD-BBR-BBSW-1M</v>
       </c>
       <c r="I12" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>RateBasisCurve</v>
       </c>
       <c r="J12" t="str">
-        <v>None</v>
+        <v>RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="K12" t="str">
-        <v>Spreadsheet</v>
+        <v>Orion</v>
       </c>
       <c r="L12" t="str">
         <v>None</v>
       </c>
       <c r="M12" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="N12" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O12" t="str">
         <v>1/01/0001</v>
@@ -839,22 +847,22 @@
         <v>None</v>
       </c>
       <c r="D13" t="str">
-        <v>LinearZero</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E13" t="str">
-        <v>28/11/2017</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F13" t="str">
-        <v>28/11/2017</v>
+        <v>28/06/2019</v>
       </c>
       <c r="G13" t="str">
         <v>Parent</v>
       </c>
       <c r="H13" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-BBR-BBSW-3M</v>
       </c>
       <c r="I13" t="str">
-        <v>BondCurve</v>
+        <v>RateCurve</v>
       </c>
       <c r="J13" t="str">
         <v>None</v>
@@ -866,13 +874,13 @@
         <v>None</v>
       </c>
       <c r="M13" t="str">
-        <v>Market.QR_LIVE.2017-11-28.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="N13" t="str">
         <v>Rates</v>
       </c>
       <c r="O13" t="str">
-        <v>28/11/2017</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -886,22 +894,22 @@
         <v>None</v>
       </c>
       <c r="D14" t="str">
-        <v>LinearZero</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E14" t="str">
-        <v>30/11/2017</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F14" t="str">
-        <v>30/11/2017</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G14" t="str">
         <v>Parent</v>
       </c>
       <c r="H14" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I14" t="str">
-        <v>BondCurve</v>
+        <v>DiscountCurve</v>
       </c>
       <c r="J14" t="str">
         <v>None</v>
@@ -913,13 +921,13 @@
         <v>None</v>
       </c>
       <c r="M14" t="str">
-        <v>Market.QR_LIVE.2017-11-30.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="N14" t="str">
         <v>Rates</v>
       </c>
       <c r="O14" t="str">
-        <v>30/11/2017</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -930,43 +938,43 @@
         <v>AUD</v>
       </c>
       <c r="C15" s="2" t="str">
-        <v>None</v>
+        <v>EUR</v>
       </c>
       <c r="D15" t="str">
-        <v>LinearZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E15" t="str">
-        <v>1/12/2017</v>
+        <v>30/08/2010</v>
       </c>
       <c r="F15" t="str">
-        <v>1/12/2017</v>
+        <v>1/01/0001</v>
       </c>
       <c r="G15" t="str">
-        <v>Parent</v>
+        <v>Unknown</v>
       </c>
       <c r="H15" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-EUR</v>
       </c>
       <c r="I15" t="str">
-        <v>BondCurve</v>
+        <v>FxCurve</v>
       </c>
       <c r="J15" t="str">
         <v>None</v>
       </c>
       <c r="K15" t="str">
-        <v>Spreadsheet</v>
+        <v>Orion</v>
       </c>
       <c r="L15" t="str">
         <v>None</v>
       </c>
       <c r="M15" t="str">
-        <v>Market.QR_LIVE.2017-12-01.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
       </c>
       <c r="N15" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O15" t="str">
-        <v>1/12/2017</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -977,43 +985,43 @@
         <v>AUD</v>
       </c>
       <c r="C16" s="2" t="str">
-        <v>None</v>
+        <v>GBP</v>
       </c>
       <c r="D16" t="str">
-        <v>LinearZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E16" t="str">
-        <v>27/11/2017</v>
+        <v>30/08/2010</v>
       </c>
       <c r="F16" t="str">
-        <v>27/11/2017</v>
+        <v>1/01/0001</v>
       </c>
       <c r="G16" t="str">
-        <v>Parent</v>
+        <v>Unknown</v>
       </c>
       <c r="H16" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-GBP</v>
       </c>
       <c r="I16" t="str">
-        <v>BondCurve</v>
+        <v>FxCurve</v>
       </c>
       <c r="J16" t="str">
         <v>None</v>
       </c>
       <c r="K16" t="str">
-        <v>Spreadsheet</v>
+        <v>Orion</v>
       </c>
       <c r="L16" t="str">
         <v>None</v>
       </c>
       <c r="M16" t="str">
-        <v>Market.QR_LIVE.2017-11-27.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
       </c>
       <c r="N16" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O16" t="str">
-        <v>27/11/2017</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1024,40 +1032,40 @@
         <v>AUD</v>
       </c>
       <c r="C17" s="2" t="str">
-        <v>None</v>
+        <v>JPY</v>
       </c>
       <c r="D17" t="str">
-        <v>LinearZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E17" t="str">
-        <v>24/02/2018</v>
+        <v>30/08/2010</v>
       </c>
       <c r="F17" t="str">
-        <v>24/02/2018</v>
+        <v>1/01/0001</v>
       </c>
       <c r="G17" t="str">
-        <v>Parent</v>
+        <v>Unknown</v>
       </c>
       <c r="H17" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-JPY</v>
       </c>
       <c r="I17" t="str">
-        <v>BondCurve</v>
+        <v>FxCurve</v>
       </c>
       <c r="J17" t="str">
         <v>None</v>
       </c>
       <c r="K17" t="str">
-        <v>Spreadsheet</v>
+        <v>Orion</v>
       </c>
       <c r="L17" t="str">
         <v>None</v>
       </c>
       <c r="M17" t="str">
-        <v>Market.QR_LIVE.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
       </c>
       <c r="N17" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O17" t="str">
         <v>1/01/0001</v>
@@ -1071,43 +1079,43 @@
         <v>AUD</v>
       </c>
       <c r="C18" s="2" t="str">
-        <v>None</v>
+        <v>NZD</v>
       </c>
       <c r="D18" t="str">
-        <v>Linear</v>
+        <v>LinearForward</v>
       </c>
       <c r="E18" t="str">
-        <v>24/02/2018</v>
+        <v>30/08/2010</v>
       </c>
       <c r="F18" t="str">
-        <v>24/02/2018</v>
+        <v>1/01/0001</v>
       </c>
       <c r="G18" t="str">
-        <v>Parent</v>
+        <v>Unknown</v>
       </c>
       <c r="H18" t="str">
-        <v>AUD-Xibor-3M-SydneySwapDesk</v>
+        <v>AUD-NZD</v>
       </c>
       <c r="I18" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>FxCurve</v>
       </c>
       <c r="J18" t="str">
         <v>None</v>
       </c>
       <c r="K18" t="str">
-        <v>Spreadsheet</v>
+        <v>Orion</v>
       </c>
       <c r="L18" t="str">
         <v>None</v>
       </c>
       <c r="M18" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
       </c>
       <c r="N18" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O18" t="str">
-        <v>24/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1118,25 +1126,25 @@
         <v>AUD</v>
       </c>
       <c r="C19" s="2" t="str">
-        <v>None</v>
+        <v>USD</v>
       </c>
       <c r="D19" t="str">
-        <v>SimpleGapStep</v>
+        <v>LinearForward</v>
       </c>
       <c r="E19" t="str">
-        <v>21/02/2018</v>
+        <v>24/06/2019</v>
       </c>
       <c r="F19" t="str">
-        <v>21/02/2018</v>
+        <v>24/06/2019</v>
       </c>
       <c r="G19" t="str">
         <v>Parent</v>
       </c>
       <c r="H19" t="str">
-        <v>AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>AUD-USD</v>
       </c>
       <c r="I19" t="str">
-        <v>RateCurve</v>
+        <v>FxCurve</v>
       </c>
       <c r="J19" t="str">
         <v>None</v>
@@ -1148,10 +1156,10 @@
         <v>None</v>
       </c>
       <c r="M19" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
+        <v>Market.QR_LIVE.FxCurve.AUD-USD</v>
       </c>
       <c r="N19" t="str">
-        <v>Rates</v>
+        <v>Fx</v>
       </c>
       <c r="O19" t="str">
         <v>1/01/0001</v>
@@ -1168,37 +1176,37 @@
         <v>None</v>
       </c>
       <c r="D20" t="str">
-        <v>LinearZero</v>
+        <v>CalypsoAlgo4</v>
       </c>
       <c r="E20" t="str">
-        <v>24/02/2018</v>
+        <v>30/08/2010</v>
       </c>
       <c r="F20" t="str">
-        <v>24/02/2018</v>
+        <v>1/01/0001</v>
       </c>
       <c r="G20" t="str">
-        <v>Parent</v>
+        <v>Unknown</v>
       </c>
       <c r="H20" t="str">
-        <v>AUD-WATC-SECURED</v>
+        <v>AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="I20" t="str">
-        <v>BondFinancingCurve</v>
+        <v>RateCurve</v>
       </c>
       <c r="J20" t="str">
         <v>None</v>
       </c>
       <c r="K20" t="str">
-        <v>Spreadsheet</v>
+        <v>Orion</v>
       </c>
       <c r="L20" t="str">
         <v>None</v>
       </c>
       <c r="M20" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-WATC-SECURED</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
       </c>
       <c r="N20" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O20" t="str">
         <v>1/01/0001</v>
@@ -1215,40 +1223,40 @@
         <v>None</v>
       </c>
       <c r="D21" t="str">
-        <v>LinearZero</v>
+        <v>CalypsoAlgo4</v>
       </c>
       <c r="E21" t="str">
-        <v>24/02/2018</v>
+        <v>27/08/2010</v>
       </c>
       <c r="F21" t="str">
-        <v>24/02/2018</v>
+        <v>1/01/0001</v>
       </c>
       <c r="G21" t="str">
-        <v>Child</v>
+        <v>Unknown</v>
       </c>
       <c r="H21" t="str">
-        <v>AUD-GC-SECURED</v>
+        <v>AUD-BBR-BBSW-2M</v>
       </c>
       <c r="I21" t="str">
-        <v>BondFinancingBasisCurve</v>
+        <v>RateCurve</v>
       </c>
       <c r="J21" t="str">
         <v>None</v>
       </c>
       <c r="K21" t="str">
-        <v>Spreadsheet</v>
+        <v>Orion</v>
       </c>
       <c r="L21" t="str">
         <v>None</v>
       </c>
       <c r="M21" t="str">
-        <v>Market.QR_LIVE.2014-03-21.RateCurve.AUD-GC-SECURED</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
       </c>
       <c r="N21" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O21" t="str">
-        <v>21/03/2014</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1262,40 +1270,40 @@
         <v>None</v>
       </c>
       <c r="D22" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E22" t="str">
-        <v>24/02/2018</v>
+        <v>19/11/2011</v>
       </c>
       <c r="F22" t="str">
-        <v>24/02/2018</v>
+        <v>19/11/2011</v>
       </c>
       <c r="G22" t="str">
-        <v>Child</v>
+        <v>Unknown</v>
       </c>
       <c r="H22" t="str">
-        <v>AUD-GC-SECURED</v>
+        <v>AUD-BBR-BBSW-1M-SydneySwapDesk</v>
       </c>
       <c r="I22" t="str">
-        <v>BondFinancingBasisCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J22" t="str">
         <v>None</v>
       </c>
       <c r="K22" t="str">
-        <v>Spreadsheet</v>
+        <v>SpreadSheet</v>
       </c>
       <c r="L22" t="str">
         <v>None</v>
       </c>
       <c r="M22" t="str">
-        <v>Market.QR_LIVE.2014-03-19.RateCurve.AUD-GC-SECURED</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
       </c>
       <c r="N22" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O22" t="str">
-        <v>19/03/2014</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -1309,40 +1317,40 @@
         <v>None</v>
       </c>
       <c r="D23" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E23" t="str">
-        <v>24/02/2018</v>
+        <v>19/11/2011</v>
       </c>
       <c r="F23" t="str">
-        <v>24/02/2018</v>
+        <v>19/11/2011</v>
       </c>
       <c r="G23" t="str">
-        <v>Child</v>
+        <v>Unknown</v>
       </c>
       <c r="H23" t="str">
-        <v>AUD-GC-SECURED</v>
+        <v>AUD-BBR-BBSW-3M-SydneySwapDesk</v>
       </c>
       <c r="I23" t="str">
-        <v>BondFinancingBasisCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J23" t="str">
         <v>None</v>
       </c>
       <c r="K23" t="str">
-        <v>Spreadsheet</v>
+        <v>SpreadSheet</v>
       </c>
       <c r="L23" t="str">
         <v>None</v>
       </c>
       <c r="M23" t="str">
-        <v>Market.QR_LIVE.2014-03-17.RateCurve.AUD-GC-SECURED</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="N23" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O23" t="str">
-        <v>17/03/2014</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -1356,40 +1364,40 @@
         <v>None</v>
       </c>
       <c r="D24" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E24" t="str">
-        <v>24/02/2018</v>
+        <v>19/11/2011</v>
       </c>
       <c r="F24" t="str">
-        <v>24/02/2018</v>
+        <v>19/11/2011</v>
       </c>
       <c r="G24" t="str">
-        <v>Child</v>
+        <v>Unknown</v>
       </c>
       <c r="H24" t="str">
-        <v>AUD-GC-SECURED</v>
+        <v>AUD-BBR-BBSW-6M-SydneySwapDesk</v>
       </c>
       <c r="I24" t="str">
-        <v>BondFinancingBasisCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J24" t="str">
         <v>None</v>
       </c>
       <c r="K24" t="str">
-        <v>Spreadsheet</v>
+        <v>SpreadSheet</v>
       </c>
       <c r="L24" t="str">
         <v>None</v>
       </c>
       <c r="M24" t="str">
-        <v>Market.QR_LIVE.2014-03-20.RateCurve.AUD-GC-SECURED</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="N24" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O24" t="str">
-        <v>20/03/2014</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -1403,40 +1411,40 @@
         <v>None</v>
       </c>
       <c r="D25" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E25" t="str">
-        <v>24/02/2018</v>
+        <v>18/12/2011</v>
       </c>
       <c r="F25" t="str">
-        <v>24/02/2018</v>
+        <v>18/12/2011</v>
       </c>
       <c r="G25" t="str">
-        <v>Child</v>
+        <v>Unknown</v>
       </c>
       <c r="H25" t="str">
-        <v>AUD-GC-SECURED</v>
+        <v>AUD-IRSwap-SydneySwapDesk</v>
       </c>
       <c r="I25" t="str">
-        <v>BondFinancingBasisCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J25" t="str">
         <v>None</v>
       </c>
       <c r="K25" t="str">
-        <v>Spreadsheet</v>
+        <v>SpreadSheet</v>
       </c>
       <c r="L25" t="str">
         <v>None</v>
       </c>
       <c r="M25" t="str">
-        <v>Market.QR_LIVE.2014-03-18.RateCurve.AUD-GC-SECURED</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
       </c>
       <c r="N25" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O25" t="str">
-        <v>18/03/2014</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -1450,40 +1458,40 @@
         <v>None</v>
       </c>
       <c r="D26" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E26" t="str">
-        <v>2/12/2017</v>
+        <v>30/12/2011</v>
       </c>
       <c r="F26" t="str">
-        <v>2/12/2017</v>
+        <v>30/12/2011</v>
       </c>
       <c r="G26" t="str">
-        <v>Parent</v>
+        <v>Unknown</v>
       </c>
       <c r="H26" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-IRSwap-SydneySwapDesk</v>
       </c>
       <c r="I26" t="str">
-        <v>BondCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J26" t="str">
         <v>None</v>
       </c>
       <c r="K26" t="str">
-        <v>Spreadsheet</v>
+        <v>SpreadSheet</v>
       </c>
       <c r="L26" t="str">
         <v>None</v>
       </c>
       <c r="M26" t="str">
-        <v>Market.QR_LIVE.2017-12-02.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
       </c>
       <c r="N26" t="str">
-        <v>Rates</v>
+        <v>Unknown</v>
       </c>
       <c r="O26" t="str">
-        <v>2/12/2017</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -1497,22 +1505,22 @@
         <v>None</v>
       </c>
       <c r="D27" t="str">
-        <v>LinearZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E27" t="str">
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F27" t="str">
-        <v>24/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="G27" t="str">
         <v>Parent</v>
       </c>
       <c r="H27" t="str">
-        <v>AUD-WATC-SENIOR</v>
+        <v>AUD-AAD.AU</v>
       </c>
       <c r="I27" t="str">
-        <v>BondDiscountCurve</v>
+        <v>EquityCurve</v>
       </c>
       <c r="J27" t="str">
         <v>None</v>
@@ -1524,10 +1532,10 @@
         <v>None</v>
       </c>
       <c r="M27" t="str">
-        <v>Market.QR_LIVE.DiscountCurve.AUD-WATC-SENIOR</v>
+        <v>Market.QR_LIVE.EquityCurve.AUD-AAD.AU</v>
       </c>
       <c r="N27" t="str">
-        <v>Rates</v>
+        <v>Equity</v>
       </c>
       <c r="O27" t="str">
         <v>1/01/0001</v>
@@ -1544,22 +1552,22 @@
         <v>None</v>
       </c>
       <c r="D28" t="str">
-        <v>FastLinearZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E28" t="str">
-        <v>1/07/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="F28" t="str">
-        <v>1/07/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="G28" t="str">
         <v>Parent</v>
       </c>
       <c r="H28" t="str">
-        <v>AUD-LIBOR-BBA-3M</v>
+        <v>AUD-ASX_Wheat</v>
       </c>
       <c r="I28" t="str">
-        <v>RateCurve</v>
+        <v>CommodityCurve</v>
       </c>
       <c r="J28" t="str">
         <v>None</v>
@@ -1571,10 +1579,10 @@
         <v>None</v>
       </c>
       <c r="M28" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-ASX_Wheat</v>
       </c>
       <c r="N28" t="str">
-        <v>Rates</v>
+        <v>Commodity</v>
       </c>
       <c r="O28" t="str">
         <v>1/01/0001</v>
@@ -1591,22 +1599,22 @@
         <v>None</v>
       </c>
       <c r="D29" t="str">
-        <v>LinearSpreadZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E29" t="str">
-        <v>2/12/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="F29" t="str">
-        <v>2/12/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="G29" t="str">
         <v>Child</v>
       </c>
       <c r="H29" t="str">
-        <v>AUD-LIBOR-BBA-1M</v>
+        <v>AUD-Cairns-AW2-Wheat</v>
       </c>
       <c r="I29" t="str">
-        <v>RateBasisCurve</v>
+        <v>CommoditySpreadCurve</v>
       </c>
       <c r="J29" t="str">
         <v>None</v>
@@ -1618,10 +1626,10 @@
         <v>None</v>
       </c>
       <c r="M29" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-Cairns-AW2-Wheat</v>
       </c>
       <c r="N29" t="str">
-        <v>Rates</v>
+        <v>Commodity</v>
       </c>
       <c r="O29" t="str">
         <v>1/01/0001</v>
@@ -1638,22 +1646,22 @@
         <v>None</v>
       </c>
       <c r="D30" t="str">
-        <v>LinearSpreadZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E30" t="str">
-        <v>2/12/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="F30" t="str">
-        <v>2/12/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="G30" t="str">
         <v>Child</v>
       </c>
       <c r="H30" t="str">
-        <v>AUD-LIBOR-BBA-6M</v>
+        <v>AUD-Townsville-AW2-Wheat</v>
       </c>
       <c r="I30" t="str">
-        <v>RateBasisCurve</v>
+        <v>CommoditySpreadCurve</v>
       </c>
       <c r="J30" t="str">
         <v>None</v>
@@ -1665,10 +1673,10 @@
         <v>None</v>
       </c>
       <c r="M30" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-Townsville-AW2-Wheat</v>
       </c>
       <c r="N30" t="str">
-        <v>Rates</v>
+        <v>Commodity</v>
       </c>
       <c r="O30" t="str">
         <v>1/01/0001</v>
@@ -1685,22 +1693,22 @@
         <v>None</v>
       </c>
       <c r="D31" t="str">
-        <v>LinearSpreadZero</v>
+        <v>LinearForward</v>
       </c>
       <c r="E31" t="str">
-        <v>1/07/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="F31" t="str">
-        <v>1/07/2017</v>
+        <v>24/06/2019</v>
       </c>
       <c r="G31" t="str">
         <v>Child</v>
       </c>
       <c r="H31" t="str">
-        <v>AUD-LIBOR-BBA-1M</v>
+        <v>AUD-Mossman-AW2-Wheat</v>
       </c>
       <c r="I31" t="str">
-        <v>RateBasisCurve</v>
+        <v>CommoditySpreadCurve</v>
       </c>
       <c r="J31" t="str">
         <v>None</v>
@@ -1712,10 +1720,10 @@
         <v>None</v>
       </c>
       <c r="M31" t="str">
-        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
+        <v>Market.QR_LIVE.CommodityCurve.AUD-Mossman-AW2-Wheat</v>
       </c>
       <c r="N31" t="str">
-        <v>Rates</v>
+        <v>Commodity</v>
       </c>
       <c r="O31" t="str">
         <v>1/01/0001</v>
@@ -1732,22 +1740,22 @@
         <v>None</v>
       </c>
       <c r="D32" t="str">
-        <v>Linear</v>
+        <v>Default</v>
       </c>
       <c r="E32" t="str">
-        <v>30/03/2018</v>
+        <v>29/11/2007</v>
       </c>
       <c r="F32" t="str">
-        <v>30/03/2018</v>
+        <v>29/11/2007</v>
       </c>
       <c r="G32" t="str">
         <v>Parent</v>
       </c>
       <c r="H32" t="str">
-        <v>AUD-IRSwap-SydneySwapDesk</v>
+        <v>Unknown</v>
       </c>
       <c r="I32" t="str">
-        <v>RateATMVolatilityMatrix</v>
+        <v>CapVolatilityCurve</v>
       </c>
       <c r="J32" t="str">
         <v>None</v>
@@ -1759,7 +1767,7 @@
         <v>None</v>
       </c>
       <c r="M32" t="str">
-        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="N32" t="str">
         <v>Rates</v>
@@ -1779,22 +1787,22 @@
         <v>None</v>
       </c>
       <c r="D33" t="str">
-        <v>Linear</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E33" t="str">
-        <v>30/03/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F33" t="str">
-        <v>30/03/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="G33" t="str">
         <v>Parent</v>
       </c>
       <c r="H33" t="str">
-        <v>AUD-BBR-BBSW-6M-SydneySwapDesk</v>
+        <v>AUD-BBR-BBSW-6M</v>
       </c>
       <c r="I33" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>RateCurve</v>
       </c>
       <c r="J33" t="str">
         <v>None</v>
@@ -1806,7 +1814,7 @@
         <v>None</v>
       </c>
       <c r="M33" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
       </c>
       <c r="N33" t="str">
         <v>Rates</v>
@@ -1838,7 +1846,7 @@
         <v>Parent</v>
       </c>
       <c r="H34" t="str">
-        <v>AUD-IRSwap-2Y</v>
+        <v>AUD-BBR-BBSW-6M-SydneySwapDesk</v>
       </c>
       <c r="I34" t="str">
         <v>RateVolatilityMatrix</v>
@@ -1853,7 +1861,7 @@
         <v>None</v>
       </c>
       <c r="M34" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-2Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M-SydneySwapDesk</v>
       </c>
       <c r="N34" t="str">
         <v>Rates</v>
@@ -1873,37 +1881,37 @@
         <v>None</v>
       </c>
       <c r="D35" t="str">
-        <v>LinearSpreadZero</v>
+        <v>Linear</v>
       </c>
       <c r="E35" t="str">
-        <v>30/08/2010</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F35" t="str">
-        <v>1/01/0001</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G35" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H35" t="str">
-        <v>AUD-BBR-BBSW-6M</v>
+        <v>AUD-IRSwap-SydneySwapDesk</v>
       </c>
       <c r="I35" t="str">
-        <v>RateBasisCurve</v>
+        <v>RateATMVolatilityMatrix</v>
       </c>
       <c r="J35" t="str">
-        <v>RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>None</v>
       </c>
       <c r="K35" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L35" t="str">
         <v>None</v>
       </c>
       <c r="M35" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.RateATMVolatilityMatrix.AUD-IRSwap-SydneySwapDesk</v>
       </c>
       <c r="N35" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O35" t="str">
         <v>1/01/0001</v>
@@ -1920,22 +1928,22 @@
         <v>None</v>
       </c>
       <c r="D36" t="str">
-        <v>Default</v>
+        <v>LinearSpreadZero</v>
       </c>
       <c r="E36" t="str">
-        <v>29/11/2007</v>
+        <v>1/07/2017</v>
       </c>
       <c r="F36" t="str">
-        <v>29/11/2007</v>
+        <v>1/07/2017</v>
       </c>
       <c r="G36" t="str">
-        <v>Parent</v>
+        <v>Child</v>
       </c>
       <c r="H36" t="str">
-        <v>Unknown</v>
+        <v>AUD-LIBOR-BBA-1M</v>
       </c>
       <c r="I36" t="str">
-        <v>CapVolatilityCurve</v>
+        <v>RateBasisCurve</v>
       </c>
       <c r="J36" t="str">
         <v>None</v>
@@ -1947,7 +1955,7 @@
         <v>None</v>
       </c>
       <c r="M36" t="str">
-        <v>Market.QR_LIVE.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateBasisCurve.AUD-LIBOR-BBA-1M</v>
       </c>
       <c r="N36" t="str">
         <v>Rates</v>
@@ -1967,22 +1975,22 @@
         <v>None</v>
       </c>
       <c r="D37" t="str">
-        <v>LinearForward</v>
+        <v>LinearSpreadZero</v>
       </c>
       <c r="E37" t="str">
-        <v>25/04/2018</v>
+        <v>2/12/2017</v>
       </c>
       <c r="F37" t="str">
-        <v>25/04/2018</v>
+        <v>2/12/2017</v>
       </c>
       <c r="G37" t="str">
         <v>Child</v>
       </c>
       <c r="H37" t="str">
-        <v>AUD-Mossman-AW2-Wheat</v>
+        <v>AUD-LIBOR-BBA-6M</v>
       </c>
       <c r="I37" t="str">
-        <v>CommoditySpreadCurve</v>
+        <v>RateBasisCurve</v>
       </c>
       <c r="J37" t="str">
         <v>None</v>
@@ -1994,10 +2002,10 @@
         <v>None</v>
       </c>
       <c r="M37" t="str">
-        <v>Market.QR_LIVE.CommodityCurve.AUD-Mossman-AW2-Wheat</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-6M</v>
       </c>
       <c r="N37" t="str">
-        <v>Commodity</v>
+        <v>Rates</v>
       </c>
       <c r="O37" t="str">
         <v>1/01/0001</v>
@@ -2014,22 +2022,22 @@
         <v>None</v>
       </c>
       <c r="D38" t="str">
-        <v>LinearForward</v>
+        <v>LinearSpreadZero</v>
       </c>
       <c r="E38" t="str">
-        <v>25/04/2018</v>
+        <v>2/12/2017</v>
       </c>
       <c r="F38" t="str">
-        <v>25/04/2018</v>
+        <v>2/12/2017</v>
       </c>
       <c r="G38" t="str">
         <v>Child</v>
       </c>
       <c r="H38" t="str">
-        <v>AUD-Townsville-AW2-Wheat</v>
+        <v>AUD-LIBOR-BBA-1M</v>
       </c>
       <c r="I38" t="str">
-        <v>CommoditySpreadCurve</v>
+        <v>RateBasisCurve</v>
       </c>
       <c r="J38" t="str">
         <v>None</v>
@@ -2041,10 +2049,10 @@
         <v>None</v>
       </c>
       <c r="M38" t="str">
-        <v>Market.QR_LIVE.CommodityCurve.AUD-Townsville-AW2-Wheat</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-1M</v>
       </c>
       <c r="N38" t="str">
-        <v>Commodity</v>
+        <v>Rates</v>
       </c>
       <c r="O38" t="str">
         <v>1/01/0001</v>
@@ -2061,22 +2069,22 @@
         <v>None</v>
       </c>
       <c r="D39" t="str">
-        <v>LinearForward</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E39" t="str">
-        <v>25/04/2018</v>
+        <v>1/07/2017</v>
       </c>
       <c r="F39" t="str">
-        <v>25/04/2018</v>
+        <v>1/07/2017</v>
       </c>
       <c r="G39" t="str">
-        <v>Child</v>
+        <v>Parent</v>
       </c>
       <c r="H39" t="str">
-        <v>AUD-Cairns-AW2-Wheat</v>
+        <v>AUD-LIBOR-BBA-3M</v>
       </c>
       <c r="I39" t="str">
-        <v>CommoditySpreadCurve</v>
+        <v>RateCurve</v>
       </c>
       <c r="J39" t="str">
         <v>None</v>
@@ -2088,10 +2096,10 @@
         <v>None</v>
       </c>
       <c r="M39" t="str">
-        <v>Market.QR_LIVE.CommodityCurve.AUD-Cairns-AW2-Wheat</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-LIBOR-BBA-3M</v>
       </c>
       <c r="N39" t="str">
-        <v>Commodity</v>
+        <v>Rates</v>
       </c>
       <c r="O39" t="str">
         <v>1/01/0001</v>
@@ -2108,22 +2116,22 @@
         <v>None</v>
       </c>
       <c r="D40" t="str">
-        <v>LinearForward</v>
+        <v>LinearZero</v>
       </c>
       <c r="E40" t="str">
-        <v>25/04/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F40" t="str">
-        <v>25/04/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G40" t="str">
         <v>Parent</v>
       </c>
       <c r="H40" t="str">
-        <v>AUD-ASX_Wheat</v>
+        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="I40" t="str">
-        <v>CommodityCurve</v>
+        <v>BondCurve</v>
       </c>
       <c r="J40" t="str">
         <v>None</v>
@@ -2135,10 +2143,10 @@
         <v>None</v>
       </c>
       <c r="M40" t="str">
-        <v>Market.QR_LIVE.CommodityCurve.AUD-ASX_Wheat</v>
+        <v>Market.QR_LIVE.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="N40" t="str">
-        <v>Commodity</v>
+        <v>Rates</v>
       </c>
       <c r="O40" t="str">
         <v>1/01/0001</v>
@@ -2155,40 +2163,40 @@
         <v>None</v>
       </c>
       <c r="D41" t="str">
-        <v>Linear</v>
+        <v>LinearZero</v>
       </c>
       <c r="E41" t="str">
-        <v>30/12/2011</v>
+        <v>27/11/2017</v>
       </c>
       <c r="F41" t="str">
-        <v>30/12/2011</v>
+        <v>27/11/2017</v>
       </c>
       <c r="G41" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H41" t="str">
-        <v>AUD-IRSwap-SydneySwapDesk</v>
+        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="I41" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>BondCurve</v>
       </c>
       <c r="J41" t="str">
         <v>None</v>
       </c>
       <c r="K41" t="str">
-        <v>SpreadSheet</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L41" t="str">
         <v>None</v>
       </c>
       <c r="M41" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-10Y</v>
+        <v>Market.QR_LIVE.2017-11-27.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="N41" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O41" t="str">
-        <v>1/01/0001</v>
+        <v>27/11/2017</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
@@ -2202,40 +2210,40 @@
         <v>None</v>
       </c>
       <c r="D42" t="str">
-        <v>Linear</v>
+        <v>LinearZero</v>
       </c>
       <c r="E42" t="str">
-        <v>18/12/2011</v>
+        <v>1/12/2017</v>
       </c>
       <c r="F42" t="str">
-        <v>18/12/2011</v>
+        <v>1/12/2017</v>
       </c>
       <c r="G42" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H42" t="str">
-        <v>AUD-IRSwap-SydneySwapDesk</v>
+        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="I42" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>BondCurve</v>
       </c>
       <c r="J42" t="str">
         <v>None</v>
       </c>
       <c r="K42" t="str">
-        <v>SpreadSheet</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L42" t="str">
         <v>None</v>
       </c>
       <c r="M42" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-5Y</v>
+        <v>Market.QR_LIVE.2017-12-01.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="N42" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O42" t="str">
-        <v>1/01/0001</v>
+        <v>1/12/2017</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
@@ -2249,40 +2257,40 @@
         <v>None</v>
       </c>
       <c r="D43" t="str">
-        <v>Linear</v>
+        <v>LinearZero</v>
       </c>
       <c r="E43" t="str">
-        <v>19/11/2011</v>
+        <v>30/11/2017</v>
       </c>
       <c r="F43" t="str">
-        <v>19/11/2011</v>
+        <v>30/11/2017</v>
       </c>
       <c r="G43" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H43" t="str">
-        <v>AUD-BBR-BBSW-6M-SydneySwapDesk</v>
+        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="I43" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>BondCurve</v>
       </c>
       <c r="J43" t="str">
         <v>None</v>
       </c>
       <c r="K43" t="str">
-        <v>SpreadSheet</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L43" t="str">
         <v>None</v>
       </c>
       <c r="M43" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-6M</v>
+        <v>Market.QR_LIVE.2017-11-30.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="N43" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O43" t="str">
-        <v>1/01/0001</v>
+        <v>30/11/2017</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
@@ -2296,40 +2304,40 @@
         <v>None</v>
       </c>
       <c r="D44" t="str">
-        <v>Linear</v>
+        <v>LinearZero</v>
       </c>
       <c r="E44" t="str">
-        <v>19/11/2011</v>
+        <v>28/11/2017</v>
       </c>
       <c r="F44" t="str">
-        <v>19/11/2011</v>
+        <v>28/11/2017</v>
       </c>
       <c r="G44" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H44" t="str">
-        <v>AUD-BBR-BBSW-3M-SydneySwapDesk</v>
+        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="I44" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>BondCurve</v>
       </c>
       <c r="J44" t="str">
         <v>None</v>
       </c>
       <c r="K44" t="str">
-        <v>SpreadSheet</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L44" t="str">
         <v>None</v>
       </c>
       <c r="M44" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.2017-11-28.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="N44" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O44" t="str">
-        <v>1/01/0001</v>
+        <v>28/11/2017</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
@@ -2343,40 +2351,40 @@
         <v>None</v>
       </c>
       <c r="D45" t="str">
-        <v>Linear</v>
+        <v>LinearZero</v>
       </c>
       <c r="E45" t="str">
-        <v>19/11/2011</v>
+        <v>29/11/2017</v>
       </c>
       <c r="F45" t="str">
-        <v>19/11/2011</v>
+        <v>29/11/2017</v>
       </c>
       <c r="G45" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H45" t="str">
-        <v>AUD-BBR-BBSW-1M-SydneySwapDesk</v>
+        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="I45" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>BondCurve</v>
       </c>
       <c r="J45" t="str">
         <v>None</v>
       </c>
       <c r="K45" t="str">
-        <v>SpreadSheet</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L45" t="str">
         <v>None</v>
       </c>
       <c r="M45" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1M</v>
+        <v>Market.QR_LIVE.2017-11-29.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="N45" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O45" t="str">
-        <v>1/01/0001</v>
+        <v>29/11/2017</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
@@ -2390,22 +2398,22 @@
         <v>None</v>
       </c>
       <c r="D46" t="str">
-        <v>LinearForward</v>
+        <v>LinearZero</v>
       </c>
       <c r="E46" t="str">
-        <v>25/04/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F46" t="str">
-        <v>25/04/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G46" t="str">
         <v>Parent</v>
       </c>
       <c r="H46" t="str">
-        <v>AUD-AAD.AU</v>
+        <v>AUD-WATC-SENIOR</v>
       </c>
       <c r="I46" t="str">
-        <v>EquityCurve</v>
+        <v>BondDiscountCurve</v>
       </c>
       <c r="J46" t="str">
         <v>None</v>
@@ -2417,10 +2425,10 @@
         <v>None</v>
       </c>
       <c r="M46" t="str">
-        <v>Market.QR_LIVE.EquityCurve.AUD-AAD.AU</v>
+        <v>Market.QR_LIVE.DiscountCurve.AUD-WATC-SENIOR</v>
       </c>
       <c r="N46" t="str">
-        <v>Equity</v>
+        <v>Rates</v>
       </c>
       <c r="O46" t="str">
         <v>1/01/0001</v>
@@ -2437,40 +2445,40 @@
         <v>None</v>
       </c>
       <c r="D47" t="str">
-        <v>CalypsoAlgo4</v>
+        <v>LinearZero</v>
       </c>
       <c r="E47" t="str">
-        <v>27/08/2010</v>
+        <v>2/12/2017</v>
       </c>
       <c r="F47" t="str">
-        <v>1/01/0001</v>
+        <v>2/12/2017</v>
       </c>
       <c r="G47" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H47" t="str">
-        <v>AUD-BBR-BBSW-2M</v>
+        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="I47" t="str">
-        <v>RateCurve</v>
+        <v>BondCurve</v>
       </c>
       <c r="J47" t="str">
         <v>None</v>
       </c>
       <c r="K47" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L47" t="str">
         <v>None</v>
       </c>
       <c r="M47" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-2M</v>
+        <v>Market.QR_LIVE.2017-12-02.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
       </c>
       <c r="N47" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O47" t="str">
-        <v>1/01/0001</v>
+        <v>2/12/2017</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -2484,40 +2492,40 @@
         <v>None</v>
       </c>
       <c r="D48" t="str">
-        <v>CalypsoAlgo4</v>
+        <v>LinearZero</v>
       </c>
       <c r="E48" t="str">
-        <v>30/08/2010</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F48" t="str">
-        <v>1/01/0001</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G48" t="str">
-        <v>Unknown</v>
+        <v>Child</v>
       </c>
       <c r="H48" t="str">
-        <v>AUD-AONIA-OIS-COMPOUND</v>
+        <v>AUD-GC-SECURED</v>
       </c>
       <c r="I48" t="str">
-        <v>RateCurve</v>
+        <v>BondFinancingBasisCurve</v>
       </c>
       <c r="J48" t="str">
         <v>None</v>
       </c>
       <c r="K48" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L48" t="str">
         <v>None</v>
       </c>
       <c r="M48" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND</v>
+        <v>Market.QR_LIVE.2014-03-18.RateCurve.AUD-GC-SECURED</v>
       </c>
       <c r="N48" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O48" t="str">
-        <v>1/01/0001</v>
+        <v>18/03/2014</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
@@ -2528,25 +2536,25 @@
         <v>AUD</v>
       </c>
       <c r="C49" s="2" t="str">
-        <v>USD</v>
+        <v>None</v>
       </c>
       <c r="D49" t="str">
-        <v>LinearForward</v>
+        <v>LinearZero</v>
       </c>
       <c r="E49" t="str">
-        <v>25/04/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F49" t="str">
-        <v>25/04/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G49" t="str">
-        <v>Parent</v>
+        <v>Child</v>
       </c>
       <c r="H49" t="str">
-        <v>AUD-USD</v>
+        <v>AUD-GC-SECURED</v>
       </c>
       <c r="I49" t="str">
-        <v>FxCurve</v>
+        <v>BondFinancingBasisCurve</v>
       </c>
       <c r="J49" t="str">
         <v>None</v>
@@ -2558,13 +2566,13 @@
         <v>None</v>
       </c>
       <c r="M49" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-USD</v>
+        <v>Market.QR_LIVE.2014-03-20.RateCurve.AUD-GC-SECURED</v>
       </c>
       <c r="N49" t="str">
-        <v>Fx</v>
+        <v>Rates</v>
       </c>
       <c r="O49" t="str">
-        <v>1/01/0001</v>
+        <v>20/03/2014</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
@@ -2575,43 +2583,43 @@
         <v>AUD</v>
       </c>
       <c r="C50" s="2" t="str">
-        <v>NZD</v>
+        <v>None</v>
       </c>
       <c r="D50" t="str">
-        <v>LinearForward</v>
+        <v>LinearZero</v>
       </c>
       <c r="E50" t="str">
-        <v>30/08/2010</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F50" t="str">
-        <v>1/01/0001</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G50" t="str">
-        <v>Unknown</v>
+        <v>Child</v>
       </c>
       <c r="H50" t="str">
-        <v>AUD-NZD</v>
+        <v>AUD-GC-SECURED</v>
       </c>
       <c r="I50" t="str">
-        <v>FxCurve</v>
+        <v>BondFinancingBasisCurve</v>
       </c>
       <c r="J50" t="str">
         <v>None</v>
       </c>
       <c r="K50" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L50" t="str">
         <v>None</v>
       </c>
       <c r="M50" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-NZD</v>
+        <v>Market.QR_LIVE.2014-03-17.RateCurve.AUD-GC-SECURED</v>
       </c>
       <c r="N50" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O50" t="str">
-        <v>1/01/0001</v>
+        <v>17/03/2014</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.2">
@@ -2622,43 +2630,43 @@
         <v>AUD</v>
       </c>
       <c r="C51" s="2" t="str">
-        <v>JPY</v>
+        <v>None</v>
       </c>
       <c r="D51" t="str">
-        <v>LinearForward</v>
+        <v>LinearZero</v>
       </c>
       <c r="E51" t="str">
-        <v>30/08/2010</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F51" t="str">
-        <v>1/01/0001</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G51" t="str">
-        <v>Unknown</v>
+        <v>Child</v>
       </c>
       <c r="H51" t="str">
-        <v>AUD-JPY</v>
+        <v>AUD-GC-SECURED</v>
       </c>
       <c r="I51" t="str">
-        <v>FxCurve</v>
+        <v>BondFinancingBasisCurve</v>
       </c>
       <c r="J51" t="str">
         <v>None</v>
       </c>
       <c r="K51" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L51" t="str">
         <v>None</v>
       </c>
       <c r="M51" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-JPY</v>
+        <v>Market.QR_LIVE.2014-03-19.RateCurve.AUD-GC-SECURED</v>
       </c>
       <c r="N51" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O51" t="str">
-        <v>1/01/0001</v>
+        <v>19/03/2014</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
@@ -2672,22 +2680,22 @@
         <v>None</v>
       </c>
       <c r="D52" t="str">
-        <v>Linear</v>
+        <v>LinearZero</v>
       </c>
       <c r="E52" t="str">
-        <v>30/03/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F52" t="str">
-        <v>30/03/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G52" t="str">
-        <v>Parent</v>
+        <v>Child</v>
       </c>
       <c r="H52" t="str">
-        <v>AUD-IRSwap-3Y</v>
+        <v>AUD-GC-SECURED</v>
       </c>
       <c r="I52" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>BondFinancingBasisCurve</v>
       </c>
       <c r="J52" t="str">
         <v>None</v>
@@ -2699,13 +2707,13 @@
         <v>None</v>
       </c>
       <c r="M52" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-3Y</v>
+        <v>Market.QR_LIVE.2014-03-21.RateCurve.AUD-GC-SECURED</v>
       </c>
       <c r="N52" t="str">
         <v>Rates</v>
       </c>
       <c r="O52" t="str">
-        <v>1/01/0001</v>
+        <v>21/03/2014</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.2">
@@ -2719,22 +2727,22 @@
         <v>None</v>
       </c>
       <c r="D53" t="str">
-        <v>Linear</v>
+        <v>LinearZero</v>
       </c>
       <c r="E53" t="str">
-        <v>30/03/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="F53" t="str">
-        <v>30/03/2018</v>
+        <v>26/06/2019</v>
       </c>
       <c r="G53" t="str">
         <v>Parent</v>
       </c>
       <c r="H53" t="str">
-        <v>AUD-IRSwap-4Y</v>
+        <v>AUD-WATC-SECURED</v>
       </c>
       <c r="I53" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>BondFinancingCurve</v>
       </c>
       <c r="J53" t="str">
         <v>None</v>
@@ -2746,7 +2754,7 @@
         <v>None</v>
       </c>
       <c r="M53" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-4Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-WATC-SECURED</v>
       </c>
       <c r="N53" t="str">
         <v>Rates</v>
@@ -2766,22 +2774,22 @@
         <v>None</v>
       </c>
       <c r="D54" t="str">
-        <v>Linear</v>
+        <v>SimpleGapStep</v>
       </c>
       <c r="E54" t="str">
-        <v>30/03/2018</v>
+        <v>21/02/2018</v>
       </c>
       <c r="F54" t="str">
-        <v>30/03/2018</v>
+        <v>21/02/2018</v>
       </c>
       <c r="G54" t="str">
         <v>Parent</v>
       </c>
       <c r="H54" t="str">
-        <v>AUD-IRSwap-6Y</v>
+        <v>AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
       <c r="I54" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>RateCurve</v>
       </c>
       <c r="J54" t="str">
         <v>None</v>
@@ -2793,7 +2801,7 @@
         <v>None</v>
       </c>
       <c r="M54" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-6Y</v>
+        <v>Market.QR_LIVE.RateCurve.AUD-AONIA-OIS-COMPOUND-1D</v>
       </c>
       <c r="N54" t="str">
         <v>Rates</v>
@@ -2816,16 +2824,16 @@
         <v>Linear</v>
       </c>
       <c r="E55" t="str">
-        <v>30/03/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="F55" t="str">
-        <v>30/03/2018</v>
+        <v>1/07/2019</v>
       </c>
       <c r="G55" t="str">
         <v>Parent</v>
       </c>
       <c r="H55" t="str">
-        <v>AUD-IRSwap-7Y</v>
+        <v>AUD-Xibor-3M-SydneySwapDesk</v>
       </c>
       <c r="I55" t="str">
         <v>RateVolatilityMatrix</v>
@@ -2840,13 +2848,13 @@
         <v>None</v>
       </c>
       <c r="M55" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-7Y</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-Xibor-3M</v>
       </c>
       <c r="N55" t="str">
         <v>Rates</v>
       </c>
       <c r="O55" t="str">
-        <v>1/01/0001</v>
+        <v>1/07/2019</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.2">
@@ -2863,19 +2871,19 @@
         <v>Linear</v>
       </c>
       <c r="E56" t="str">
-        <v>30/03/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="F56" t="str">
-        <v>30/03/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="G56" t="str">
         <v>Parent</v>
       </c>
       <c r="H56" t="str">
-        <v>AUD-IRSwap-8Y</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I56" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J56" t="str">
         <v>None</v>
@@ -2887,13 +2895,13 @@
         <v>None</v>
       </c>
       <c r="M56" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
+        <v>Market.QR_LIVE.2018-02-20.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N56" t="str">
         <v>Rates</v>
       </c>
       <c r="O56" t="str">
-        <v>1/01/0001</v>
+        <v>20/02/2018</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.2">
@@ -2910,19 +2918,19 @@
         <v>Linear</v>
       </c>
       <c r="E57" t="str">
-        <v>30/03/2018</v>
+        <v>15/02/2018</v>
       </c>
       <c r="F57" t="str">
-        <v>30/03/2018</v>
+        <v>15/02/2018</v>
       </c>
       <c r="G57" t="str">
         <v>Parent</v>
       </c>
       <c r="H57" t="str">
-        <v>AUD-IRSwap-9Y</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="I57" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J57" t="str">
         <v>None</v>
@@ -2934,13 +2942,13 @@
         <v>None</v>
       </c>
       <c r="M57" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
+        <v>Market.QR_LIVE.2018-02-15.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N57" t="str">
         <v>Rates</v>
       </c>
       <c r="O57" t="str">
-        <v>1/01/0001</v>
+        <v>15/02/2018</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.2">
@@ -2957,19 +2965,19 @@
         <v>Linear</v>
       </c>
       <c r="E58" t="str">
-        <v>30/03/2018</v>
+        <v>17/02/2018</v>
       </c>
       <c r="F58" t="str">
-        <v>30/03/2018</v>
+        <v>17/02/2018</v>
       </c>
       <c r="G58" t="str">
         <v>Parent</v>
       </c>
       <c r="H58" t="str">
-        <v>AUD-IRSwap-15Y</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="I58" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J58" t="str">
         <v>None</v>
@@ -2981,13 +2989,13 @@
         <v>None</v>
       </c>
       <c r="M58" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
+        <v>Market.QR_LIVE.2018-02-17.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N58" t="str">
         <v>Rates</v>
       </c>
       <c r="O58" t="str">
-        <v>1/01/0001</v>
+        <v>17/02/2018</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.2">
@@ -3004,19 +3012,19 @@
         <v>Linear</v>
       </c>
       <c r="E59" t="str">
-        <v>30/03/2018</v>
+        <v>16/02/2018</v>
       </c>
       <c r="F59" t="str">
-        <v>30/03/2018</v>
+        <v>16/02/2018</v>
       </c>
       <c r="G59" t="str">
         <v>Parent</v>
       </c>
       <c r="H59" t="str">
-        <v>AUD-IRSwap-20Y</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="I59" t="str">
-        <v>RateVolatilityMatrix</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J59" t="str">
         <v>None</v>
@@ -3028,13 +3036,13 @@
         <v>None</v>
       </c>
       <c r="M59" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
+        <v>Market.QR_LIVE.2018-02-16.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N59" t="str">
         <v>Rates</v>
       </c>
       <c r="O59" t="str">
-        <v>1/01/0001</v>
+        <v>16/02/2018</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.2">
@@ -3048,22 +3056,22 @@
         <v>None</v>
       </c>
       <c r="D60" t="str">
-        <v>Default</v>
+        <v>Linear</v>
       </c>
       <c r="E60" t="str">
-        <v>29/11/2007</v>
+        <v>18/02/2018</v>
       </c>
       <c r="F60" t="str">
-        <v>29/11/2007</v>
+        <v>18/02/2018</v>
       </c>
       <c r="G60" t="str">
         <v>Parent</v>
       </c>
       <c r="H60" t="str">
-        <v>Unknown</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="I60" t="str">
-        <v>CapVolatilityCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J60" t="str">
         <v>None</v>
@@ -3075,13 +3083,13 @@
         <v>None</v>
       </c>
       <c r="M60" t="str">
-        <v>Market.QR_LIVE.2007-11-29.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.2018-02-18.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N60" t="str">
         <v>Rates</v>
       </c>
       <c r="O60" t="str">
-        <v>29/11/2007</v>
+        <v>18/02/2018</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2">
@@ -3095,22 +3103,22 @@
         <v>None</v>
       </c>
       <c r="D61" t="str">
-        <v>Linear</v>
+        <v>Default</v>
       </c>
       <c r="E61" t="str">
-        <v>8/05/2008</v>
+        <v>19/02/2018</v>
       </c>
       <c r="F61" t="str">
-        <v>8/05/2008</v>
+        <v>19/02/2018</v>
       </c>
       <c r="G61" t="str">
         <v>Parent</v>
       </c>
       <c r="H61" t="str">
-        <v>Unknown</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="I61" t="str">
-        <v>CapVolatilityCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J61" t="str">
         <v>None</v>
@@ -3122,13 +3130,13 @@
         <v>None</v>
       </c>
       <c r="M61" t="str">
-        <v>Market.QR_LIVE.2008-05-08.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.2018-02-19.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N61" t="str">
         <v>Rates</v>
       </c>
       <c r="O61" t="str">
-        <v>8/05/2008</v>
+        <v>19/02/2018</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2">
@@ -3145,19 +3153,19 @@
         <v>Linear</v>
       </c>
       <c r="E62" t="str">
-        <v>30/03/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="F62" t="str">
-        <v>30/03/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="G62" t="str">
         <v>Parent</v>
       </c>
       <c r="H62" t="str">
-        <v>AUD-Sample-SydneySwapDesk</v>
+        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="I62" t="str">
-        <v>RateVolatilityCube</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J62" t="str">
         <v>None</v>
@@ -3169,7 +3177,7 @@
         <v>None</v>
       </c>
       <c r="M62" t="str">
-        <v>Market.QR_LIVE.RateVolatilityCube.AUD-Sample-SydneySwapDesk</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N62" t="str">
         <v>Rates</v>
@@ -3189,22 +3197,22 @@
         <v>None</v>
       </c>
       <c r="D63" t="str">
-        <v>LinearForward</v>
+        <v>Linear</v>
       </c>
       <c r="E63" t="str">
-        <v>24/02/2018</v>
+        <v>15/02/2018</v>
       </c>
       <c r="F63" t="str">
-        <v>24/02/2018</v>
+        <v>15/02/2018</v>
       </c>
       <c r="G63" t="str">
         <v>Parent</v>
       </c>
       <c r="H63" t="str">
-        <v>AUD-QBE.AU</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I63" t="str">
-        <v>EquityCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J63" t="str">
         <v>None</v>
@@ -3216,13 +3224,13 @@
         <v>None</v>
       </c>
       <c r="M63" t="str">
-        <v>Market.QR_LIVE.EquityCurve.AUD-QBE.AU</v>
+        <v>Market.QR_LIVE.2018-02-15.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N63" t="str">
-        <v>Equity</v>
+        <v>Rates</v>
       </c>
       <c r="O63" t="str">
-        <v>1/01/0001</v>
+        <v>15/02/2018</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3236,22 +3244,22 @@
         <v>None</v>
       </c>
       <c r="D64" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E64" t="str">
-        <v>23/02/2018</v>
+        <v>16/02/2018</v>
       </c>
       <c r="F64" t="str">
-        <v>23/02/2018</v>
+        <v>16/02/2018</v>
       </c>
       <c r="G64" t="str">
         <v>Parent</v>
       </c>
       <c r="H64" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I64" t="str">
-        <v>BondCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J64" t="str">
         <v>None</v>
@@ -3263,13 +3271,13 @@
         <v>None</v>
       </c>
       <c r="M64" t="str">
-        <v>Market.QR_LIVE.2018-02-23.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.2018-02-16.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N64" t="str">
         <v>Rates</v>
       </c>
       <c r="O64" t="str">
-        <v>23/02/2018</v>
+        <v>16/02/2018</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3283,22 +3291,22 @@
         <v>None</v>
       </c>
       <c r="D65" t="str">
-        <v>FastLinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E65" t="str">
-        <v>23/02/2018</v>
+        <v>17/02/2018</v>
       </c>
       <c r="F65" t="str">
-        <v>23/02/2018</v>
+        <v>17/02/2018</v>
       </c>
       <c r="G65" t="str">
         <v>Parent</v>
       </c>
       <c r="H65" t="str">
-        <v>AUD-LIBOR-SENIOR</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I65" t="str">
-        <v>DiscountCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J65" t="str">
         <v>None</v>
@@ -3310,13 +3318,13 @@
         <v>None</v>
       </c>
       <c r="M65" t="str">
-        <v>Market.QR_LIVE.2018-02-23.DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.2018-02-17.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N65" t="str">
         <v>Rates</v>
       </c>
       <c r="O65" t="str">
-        <v>23/02/2018</v>
+        <v>17/02/2018</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.2">
@@ -3330,22 +3338,22 @@
         <v>None</v>
       </c>
       <c r="D66" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E66" t="str">
-        <v>22/02/2018</v>
+        <v>18/02/2018</v>
       </c>
       <c r="F66" t="str">
-        <v>22/02/2018</v>
+        <v>18/02/2018</v>
       </c>
       <c r="G66" t="str">
         <v>Parent</v>
       </c>
       <c r="H66" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I66" t="str">
-        <v>BondCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J66" t="str">
         <v>None</v>
@@ -3357,13 +3365,13 @@
         <v>None</v>
       </c>
       <c r="M66" t="str">
-        <v>Market.QR_LIVE.2018-02-22.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.2018-02-18.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N66" t="str">
         <v>Rates</v>
       </c>
       <c r="O66" t="str">
-        <v>22/02/2018</v>
+        <v>18/02/2018</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3377,7 +3385,7 @@
         <v>None</v>
       </c>
       <c r="D67" t="str">
-        <v>Default</v>
+        <v>Linear</v>
       </c>
       <c r="E67" t="str">
         <v>19/02/2018</v>
@@ -3389,7 +3397,7 @@
         <v>Parent</v>
       </c>
       <c r="H67" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I67" t="str">
         <v>ExchangeTradedCurve</v>
@@ -3404,7 +3412,7 @@
         <v>None</v>
       </c>
       <c r="M67" t="str">
-        <v>Market.QR_LIVE.2018-02-19.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.2018-02-19.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N67" t="str">
         <v>Rates</v>
@@ -3424,22 +3432,22 @@
         <v>None</v>
       </c>
       <c r="D68" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E68" t="str">
-        <v>19/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="F68" t="str">
-        <v>19/02/2018</v>
+        <v>28/06/2019</v>
       </c>
       <c r="G68" t="str">
         <v>Parent</v>
       </c>
       <c r="H68" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I68" t="str">
-        <v>BondCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J68" t="str">
         <v>None</v>
@@ -3451,13 +3459,13 @@
         <v>None</v>
       </c>
       <c r="M68" t="str">
-        <v>Market.QR_LIVE.2018-02-19.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N68" t="str">
         <v>Rates</v>
       </c>
       <c r="O68" t="str">
-        <v>19/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.2">
@@ -3471,22 +3479,22 @@
         <v>None</v>
       </c>
       <c r="D69" t="str">
-        <v>LinearZero</v>
+        <v>Default</v>
       </c>
       <c r="E69" t="str">
-        <v>20/02/2018</v>
+        <v>23/02/2018</v>
       </c>
       <c r="F69" t="str">
-        <v>20/02/2018</v>
+        <v>23/02/2018</v>
       </c>
       <c r="G69" t="str">
         <v>Parent</v>
       </c>
       <c r="H69" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I69" t="str">
-        <v>BondCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J69" t="str">
         <v>None</v>
@@ -3498,13 +3506,13 @@
         <v>None</v>
       </c>
       <c r="M69" t="str">
-        <v>Market.QR_LIVE.2018-02-20.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.2018-02-23.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N69" t="str">
         <v>Rates</v>
       </c>
       <c r="O69" t="str">
-        <v>20/02/2018</v>
+        <v>23/02/2018</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3518,7 +3526,7 @@
         <v>None</v>
       </c>
       <c r="D70" t="str">
-        <v>LinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E70" t="str">
         <v>21/02/2018</v>
@@ -3530,10 +3538,10 @@
         <v>Parent</v>
       </c>
       <c r="H70" t="str">
-        <v>AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I70" t="str">
-        <v>BondCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J70" t="str">
         <v>None</v>
@@ -3545,7 +3553,7 @@
         <v>None</v>
       </c>
       <c r="M70" t="str">
-        <v>Market.QR_LIVE.2018-02-21.BondCurve.AUD-Govt:WATC:Fixed:7-15/10/2019</v>
+        <v>Market.QR_LIVE.2018-02-21.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N70" t="str">
         <v>Rates</v>
@@ -3565,22 +3573,22 @@
         <v>None</v>
       </c>
       <c r="D71" t="str">
-        <v>FastLinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E71" t="str">
-        <v>20/02/2018</v>
+        <v>22/02/2018</v>
       </c>
       <c r="F71" t="str">
-        <v>20/02/2018</v>
+        <v>22/02/2018</v>
       </c>
       <c r="G71" t="str">
         <v>Parent</v>
       </c>
       <c r="H71" t="str">
-        <v>AUD-LIBOR-SENIOR</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I71" t="str">
-        <v>DiscountCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J71" t="str">
         <v>None</v>
@@ -3592,13 +3600,13 @@
         <v>None</v>
       </c>
       <c r="M71" t="str">
-        <v>Market.QR_LIVE.2018-02-20.DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.2018-02-22.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N71" t="str">
         <v>Rates</v>
       </c>
       <c r="O71" t="str">
-        <v>20/02/2018</v>
+        <v>22/02/2018</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3612,22 +3620,22 @@
         <v>None</v>
       </c>
       <c r="D72" t="str">
-        <v>FastLinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E72" t="str">
-        <v>19/02/2018</v>
+        <v>13/02/2018</v>
       </c>
       <c r="F72" t="str">
-        <v>19/02/2018</v>
+        <v>13/02/2018</v>
       </c>
       <c r="G72" t="str">
         <v>Parent</v>
       </c>
       <c r="H72" t="str">
-        <v>AUD-LIBOR-SENIOR</v>
+        <v>AUD-ASX-IR</v>
       </c>
       <c r="I72" t="str">
-        <v>DiscountCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J72" t="str">
         <v>None</v>
@@ -3639,13 +3647,13 @@
         <v>None</v>
       </c>
       <c r="M72" t="str">
-        <v>Market.QR_LIVE.2018-02-19.DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.2018-02-13.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
       <c r="N72" t="str">
         <v>Rates</v>
       </c>
       <c r="O72" t="str">
-        <v>19/02/2018</v>
+        <v>13/02/2018</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -3659,22 +3667,22 @@
         <v>None</v>
       </c>
       <c r="D73" t="str">
-        <v>FastLinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E73" t="str">
-        <v>21/02/2018</v>
+        <v>16/02/2018</v>
       </c>
       <c r="F73" t="str">
-        <v>21/02/2018</v>
+        <v>16/02/2018</v>
       </c>
       <c r="G73" t="str">
         <v>Parent</v>
       </c>
       <c r="H73" t="str">
-        <v>AUD-LIBOR-SENIOR</v>
+        <v>AUD-ASX-IR</v>
       </c>
       <c r="I73" t="str">
-        <v>DiscountCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J73" t="str">
         <v>None</v>
@@ -3686,13 +3694,13 @@
         <v>None</v>
       </c>
       <c r="M73" t="str">
-        <v>Market.QR_LIVE.2018-02-21.DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.2018-02-16.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
       <c r="N73" t="str">
         <v>Rates</v>
       </c>
       <c r="O73" t="str">
-        <v>21/02/2018</v>
+        <v>16/02/2018</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3706,22 +3714,22 @@
         <v>None</v>
       </c>
       <c r="D74" t="str">
-        <v>FastLinearZero</v>
+        <v>Linear</v>
       </c>
       <c r="E74" t="str">
-        <v>22/02/2018</v>
+        <v>15/02/2018</v>
       </c>
       <c r="F74" t="str">
-        <v>22/02/2018</v>
+        <v>15/02/2018</v>
       </c>
       <c r="G74" t="str">
         <v>Parent</v>
       </c>
       <c r="H74" t="str">
-        <v>AUD-LIBOR-SENIOR</v>
+        <v>AUD-ASX-IR</v>
       </c>
       <c r="I74" t="str">
-        <v>DiscountCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J74" t="str">
         <v>None</v>
@@ -3733,13 +3741,13 @@
         <v>None</v>
       </c>
       <c r="M74" t="str">
-        <v>Market.QR_LIVE.2018-02-22.DiscountCurve.AUD-LIBOR-SENIOR</v>
+        <v>Market.QR_LIVE.2018-02-15.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
       <c r="N74" t="str">
         <v>Rates</v>
       </c>
       <c r="O74" t="str">
-        <v>22/02/2018</v>
+        <v>15/02/2018</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
@@ -3756,16 +3764,16 @@
         <v>Linear</v>
       </c>
       <c r="E75" t="str">
-        <v>30/03/2018</v>
+        <v>14/02/2018</v>
       </c>
       <c r="F75" t="str">
-        <v>30/03/2018</v>
+        <v>14/02/2018</v>
       </c>
       <c r="G75" t="str">
         <v>Parent</v>
       </c>
       <c r="H75" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-ASX-IR</v>
       </c>
       <c r="I75" t="str">
         <v>ExchangeTradedCurve</v>
@@ -3780,13 +3788,13 @@
         <v>None</v>
       </c>
       <c r="M75" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2018-02-14.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
       <c r="N75" t="str">
         <v>Rates</v>
       </c>
       <c r="O75" t="str">
-        <v>1/01/0001</v>
+        <v>14/02/2018</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
@@ -3803,16 +3811,16 @@
         <v>Linear</v>
       </c>
       <c r="E76" t="str">
-        <v>19/02/2018</v>
+        <v>17/02/2018</v>
       </c>
       <c r="F76" t="str">
-        <v>19/02/2018</v>
+        <v>17/02/2018</v>
       </c>
       <c r="G76" t="str">
         <v>Parent</v>
       </c>
       <c r="H76" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-ASX-IR</v>
       </c>
       <c r="I76" t="str">
         <v>ExchangeTradedCurve</v>
@@ -3827,13 +3835,13 @@
         <v>None</v>
       </c>
       <c r="M76" t="str">
-        <v>Market.QR_LIVE.2018-02-19.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2018-02-17.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
       <c r="N76" t="str">
         <v>Rates</v>
       </c>
       <c r="O76" t="str">
-        <v>19/02/2018</v>
+        <v>17/02/2018</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.2">
@@ -3850,16 +3858,16 @@
         <v>Linear</v>
       </c>
       <c r="E77" t="str">
-        <v>18/02/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="F77" t="str">
-        <v>18/02/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="G77" t="str">
         <v>Parent</v>
       </c>
       <c r="H77" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-ASX-IR</v>
       </c>
       <c r="I77" t="str">
         <v>ExchangeTradedCurve</v>
@@ -3874,13 +3882,13 @@
         <v>None</v>
       </c>
       <c r="M77" t="str">
-        <v>Market.QR_LIVE.2018-02-18.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
       <c r="N77" t="str">
         <v>Rates</v>
       </c>
       <c r="O77" t="str">
-        <v>18/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.2">
@@ -3897,16 +3905,16 @@
         <v>Linear</v>
       </c>
       <c r="E78" t="str">
-        <v>17/02/2018</v>
+        <v>18/02/2018</v>
       </c>
       <c r="F78" t="str">
-        <v>17/02/2018</v>
+        <v>18/02/2018</v>
       </c>
       <c r="G78" t="str">
         <v>Parent</v>
       </c>
       <c r="H78" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-ASX-IR</v>
       </c>
       <c r="I78" t="str">
         <v>ExchangeTradedCurve</v>
@@ -3921,13 +3929,13 @@
         <v>None</v>
       </c>
       <c r="M78" t="str">
-        <v>Market.QR_LIVE.2018-02-17.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2018-02-18.ExchangeTradedCurve.AUD-ASX-IR</v>
       </c>
       <c r="N78" t="str">
         <v>Rates</v>
       </c>
       <c r="O78" t="str">
-        <v>17/02/2018</v>
+        <v>18/02/2018</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.2">
@@ -3941,13 +3949,13 @@
         <v>None</v>
       </c>
       <c r="D79" t="str">
-        <v>Linear</v>
+        <v>Default</v>
       </c>
       <c r="E79" t="str">
-        <v>16/02/2018</v>
+        <v>24/03/2018</v>
       </c>
       <c r="F79" t="str">
-        <v>16/02/2018</v>
+        <v>24/03/2018</v>
       </c>
       <c r="G79" t="str">
         <v>Parent</v>
@@ -3968,13 +3976,13 @@
         <v>None</v>
       </c>
       <c r="M79" t="str">
-        <v>Market.QR_LIVE.2018-02-16.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2018-03-24.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N79" t="str">
         <v>Rates</v>
       </c>
       <c r="O79" t="str">
-        <v>16/02/2018</v>
+        <v>24/03/2018</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.2">
@@ -3991,10 +3999,10 @@
         <v>Linear</v>
       </c>
       <c r="E80" t="str">
-        <v>15/02/2018</v>
+        <v>22/03/2018</v>
       </c>
       <c r="F80" t="str">
-        <v>15/02/2018</v>
+        <v>22/03/2018</v>
       </c>
       <c r="G80" t="str">
         <v>Parent</v>
@@ -4015,13 +4023,13 @@
         <v>None</v>
       </c>
       <c r="M80" t="str">
-        <v>Market.QR_LIVE.2018-02-15.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2018-03-22.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N80" t="str">
         <v>Rates</v>
       </c>
       <c r="O80" t="str">
-        <v>15/02/2018</v>
+        <v>22/03/2018</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.2">
@@ -4038,16 +4046,16 @@
         <v>Linear</v>
       </c>
       <c r="E81" t="str">
-        <v>20/02/2018</v>
+        <v>20/03/2018</v>
       </c>
       <c r="F81" t="str">
-        <v>20/02/2018</v>
+        <v>20/03/2018</v>
       </c>
       <c r="G81" t="str">
         <v>Parent</v>
       </c>
       <c r="H81" t="str">
-        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I81" t="str">
         <v>ExchangeTradedCurve</v>
@@ -4062,13 +4070,13 @@
         <v>None</v>
       </c>
       <c r="M81" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2018-03-20.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N81" t="str">
         <v>Rates</v>
       </c>
       <c r="O81" t="str">
-        <v>1/01/0001</v>
+        <v>20/03/2018</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.2">
@@ -4079,43 +4087,43 @@
         <v>AUD</v>
       </c>
       <c r="C82" s="2" t="str">
-        <v>GBP</v>
+        <v>None</v>
       </c>
       <c r="D82" t="str">
-        <v>LinearForward</v>
+        <v>Linear</v>
       </c>
       <c r="E82" t="str">
-        <v>30/08/2010</v>
+        <v>21/03/2018</v>
       </c>
       <c r="F82" t="str">
-        <v>1/01/0001</v>
+        <v>21/03/2018</v>
       </c>
       <c r="G82" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H82" t="str">
-        <v>AUD-GBP</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I82" t="str">
-        <v>FxCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J82" t="str">
         <v>None</v>
       </c>
       <c r="K82" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L82" t="str">
         <v>None</v>
       </c>
       <c r="M82" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-GBP</v>
+        <v>Market.QR_LIVE.2018-03-21.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N82" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O82" t="str">
-        <v>1/01/0001</v>
+        <v>21/03/2018</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.2">
@@ -4126,43 +4134,43 @@
         <v>AUD</v>
       </c>
       <c r="C83" s="2" t="str">
-        <v>EUR</v>
+        <v>None</v>
       </c>
       <c r="D83" t="str">
-        <v>LinearForward</v>
+        <v>Linear</v>
       </c>
       <c r="E83" t="str">
-        <v>30/08/2010</v>
+        <v>23/03/2018</v>
       </c>
       <c r="F83" t="str">
-        <v>1/01/0001</v>
+        <v>23/03/2018</v>
       </c>
       <c r="G83" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H83" t="str">
-        <v>AUD-EUR</v>
+        <v>AUD-ASXT-IR</v>
       </c>
       <c r="I83" t="str">
-        <v>FxCurve</v>
+        <v>ExchangeTradedCurve</v>
       </c>
       <c r="J83" t="str">
         <v>None</v>
       </c>
       <c r="K83" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L83" t="str">
         <v>None</v>
       </c>
       <c r="M83" t="str">
-        <v>Market.QR_LIVE.FxCurve.AUD-EUR</v>
+        <v>Market.QR_LIVE.2018-03-23.ExchangeTradedCurve.AUD-ASXT-IR</v>
       </c>
       <c r="N83" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O83" t="str">
-        <v>1/01/0001</v>
+        <v>23/03/2018</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -4176,37 +4184,37 @@
         <v>None</v>
       </c>
       <c r="D84" t="str">
-        <v>CalypsoAlgo4</v>
+        <v>Linear</v>
       </c>
       <c r="E84" t="str">
-        <v>30/08/2010</v>
+        <v>26/03/2018</v>
       </c>
       <c r="F84" t="str">
-        <v>1/01/0001</v>
+        <v>26/03/2018</v>
       </c>
       <c r="G84" t="str">
-        <v>Unknown</v>
+        <v>Parent</v>
       </c>
       <c r="H84" t="str">
-        <v>AUD-BBR-BBSW-3M</v>
+        <v>AUD-BBR-BBSW</v>
       </c>
       <c r="I84" t="str">
-        <v>RateCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J84" t="str">
         <v>None</v>
       </c>
       <c r="K84" t="str">
-        <v>Orion</v>
+        <v>Spreadsheet</v>
       </c>
       <c r="L84" t="str">
         <v>None</v>
       </c>
       <c r="M84" t="str">
-        <v>Market.QR_LIVE.RateCurve.AUD-BBR-BBSW-3M</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
       </c>
       <c r="N84" t="str">
-        <v>Unknown</v>
+        <v>Rates</v>
       </c>
       <c r="O84" t="str">
         <v>1/01/0001</v>
@@ -4223,22 +4231,22 @@
         <v>None</v>
       </c>
       <c r="D85" t="str">
-        <v>Default</v>
+        <v>Linear</v>
       </c>
       <c r="E85" t="str">
-        <v>19/02/2018</v>
+        <v>26/03/2018</v>
       </c>
       <c r="F85" t="str">
-        <v>19/02/2018</v>
+        <v>26/03/2018</v>
       </c>
       <c r="G85" t="str">
         <v>Parent</v>
       </c>
       <c r="H85" t="str">
-        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>AUD-IRSwap</v>
       </c>
       <c r="I85" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J85" t="str">
         <v>None</v>
@@ -4250,13 +4258,13 @@
         <v>None</v>
       </c>
       <c r="M85" t="str">
-        <v>Market.QR_LIVE.2018-02-19.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
       </c>
       <c r="N85" t="str">
         <v>Rates</v>
       </c>
       <c r="O85" t="str">
-        <v>19/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.2">
@@ -4273,19 +4281,19 @@
         <v>Linear</v>
       </c>
       <c r="E86" t="str">
-        <v>18/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F86" t="str">
-        <v>18/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G86" t="str">
         <v>Parent</v>
       </c>
       <c r="H86" t="str">
-        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>AUD-Sample-SydneySwapDesk</v>
       </c>
       <c r="I86" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityCube</v>
       </c>
       <c r="J86" t="str">
         <v>None</v>
@@ -4297,13 +4305,13 @@
         <v>None</v>
       </c>
       <c r="M86" t="str">
-        <v>Market.QR_LIVE.2018-02-18.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityCube.AUD-Sample-SydneySwapDesk</v>
       </c>
       <c r="N86" t="str">
         <v>Rates</v>
       </c>
       <c r="O86" t="str">
-        <v>18/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.2">
@@ -4320,19 +4328,19 @@
         <v>Linear</v>
       </c>
       <c r="E87" t="str">
-        <v>16/02/2018</v>
+        <v>8/05/2008</v>
       </c>
       <c r="F87" t="str">
-        <v>16/02/2018</v>
+        <v>8/05/2008</v>
       </c>
       <c r="G87" t="str">
         <v>Parent</v>
       </c>
       <c r="H87" t="str">
-        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Unknown</v>
       </c>
       <c r="I87" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>CapVolatilityCurve</v>
       </c>
       <c r="J87" t="str">
         <v>None</v>
@@ -4344,13 +4352,13 @@
         <v>None</v>
       </c>
       <c r="M87" t="str">
-        <v>Market.QR_LIVE.2018-02-16.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2008-05-08.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="N87" t="str">
         <v>Rates</v>
       </c>
       <c r="O87" t="str">
-        <v>16/02/2018</v>
+        <v>8/05/2008</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -4364,22 +4372,22 @@
         <v>None</v>
       </c>
       <c r="D88" t="str">
-        <v>Linear</v>
+        <v>Default</v>
       </c>
       <c r="E88" t="str">
-        <v>17/02/2018</v>
+        <v>29/11/2007</v>
       </c>
       <c r="F88" t="str">
-        <v>17/02/2018</v>
+        <v>29/11/2007</v>
       </c>
       <c r="G88" t="str">
         <v>Parent</v>
       </c>
       <c r="H88" t="str">
-        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Unknown</v>
       </c>
       <c r="I88" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>CapVolatilityCurve</v>
       </c>
       <c r="J88" t="str">
         <v>None</v>
@@ -4391,13 +4399,13 @@
         <v>None</v>
       </c>
       <c r="M88" t="str">
-        <v>Market.QR_LIVE.2018-02-17.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2007-11-29.CapVolatilityCurve.AUD-BBR-BBSW-3M</v>
       </c>
       <c r="N88" t="str">
         <v>Rates</v>
       </c>
       <c r="O88" t="str">
-        <v>17/02/2018</v>
+        <v>29/11/2007</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.2">
@@ -4414,19 +4422,19 @@
         <v>Linear</v>
       </c>
       <c r="E89" t="str">
-        <v>15/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F89" t="str">
-        <v>15/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G89" t="str">
         <v>Parent</v>
       </c>
       <c r="H89" t="str">
-        <v>ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>AUD-IRSwap-20Y</v>
       </c>
       <c r="I89" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J89" t="str">
         <v>None</v>
@@ -4438,13 +4446,13 @@
         <v>None</v>
       </c>
       <c r="M89" t="str">
-        <v>Market.QR_LIVE.2018-02-15.ExchangeTradedCurve.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-20Y</v>
       </c>
       <c r="N89" t="str">
         <v>Rates</v>
       </c>
       <c r="O89" t="str">
-        <v>15/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -4461,19 +4469,19 @@
         <v>Linear</v>
       </c>
       <c r="E90" t="str">
-        <v>20/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F90" t="str">
-        <v>20/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G90" t="str">
         <v>Parent</v>
       </c>
       <c r="H90" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-IRSwap-15Y</v>
       </c>
       <c r="I90" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J90" t="str">
         <v>None</v>
@@ -4485,13 +4493,13 @@
         <v>None</v>
       </c>
       <c r="M90" t="str">
-        <v>Market.QR_LIVE.2018-02-20.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-15Y</v>
       </c>
       <c r="N90" t="str">
         <v>Rates</v>
       </c>
       <c r="O90" t="str">
-        <v>20/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -4508,16 +4516,16 @@
         <v>Linear</v>
       </c>
       <c r="E91" t="str">
-        <v>26/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F91" t="str">
-        <v>26/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G91" t="str">
         <v>Parent</v>
       </c>
       <c r="H91" t="str">
-        <v>AUD-IRSwap</v>
+        <v>AUD-IRSwap-9Y</v>
       </c>
       <c r="I91" t="str">
         <v>RateVolatilityMatrix</v>
@@ -4532,7 +4540,7 @@
         <v>None</v>
       </c>
       <c r="M91" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-9Y</v>
       </c>
       <c r="N91" t="str">
         <v>Rates</v>
@@ -4555,16 +4563,16 @@
         <v>Linear</v>
       </c>
       <c r="E92" t="str">
-        <v>26/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F92" t="str">
-        <v>26/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G92" t="str">
         <v>Parent</v>
       </c>
       <c r="H92" t="str">
-        <v>AUD-BBR-BBSW</v>
+        <v>AUD-IRSwap-8Y</v>
       </c>
       <c r="I92" t="str">
         <v>RateVolatilityMatrix</v>
@@ -4579,7 +4587,7 @@
         <v>None</v>
       </c>
       <c r="M92" t="str">
-        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-8Y</v>
       </c>
       <c r="N92" t="str">
         <v>Rates</v>
@@ -4602,19 +4610,19 @@
         <v>Linear</v>
       </c>
       <c r="E93" t="str">
-        <v>23/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F93" t="str">
-        <v>23/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G93" t="str">
         <v>Parent</v>
       </c>
       <c r="H93" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-IRSwap-7Y</v>
       </c>
       <c r="I93" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J93" t="str">
         <v>None</v>
@@ -4626,13 +4634,13 @@
         <v>None</v>
       </c>
       <c r="M93" t="str">
-        <v>Market.QR_LIVE.2018-03-23.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-7Y</v>
       </c>
       <c r="N93" t="str">
         <v>Rates</v>
       </c>
       <c r="O93" t="str">
-        <v>23/03/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -4649,19 +4657,19 @@
         <v>Linear</v>
       </c>
       <c r="E94" t="str">
-        <v>21/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F94" t="str">
-        <v>21/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G94" t="str">
         <v>Parent</v>
       </c>
       <c r="H94" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-IRSwap-6Y</v>
       </c>
       <c r="I94" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J94" t="str">
         <v>None</v>
@@ -4673,13 +4681,13 @@
         <v>None</v>
       </c>
       <c r="M94" t="str">
-        <v>Market.QR_LIVE.2018-03-21.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-6Y</v>
       </c>
       <c r="N94" t="str">
         <v>Rates</v>
       </c>
       <c r="O94" t="str">
-        <v>21/03/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -4696,19 +4704,19 @@
         <v>Linear</v>
       </c>
       <c r="E95" t="str">
-        <v>20/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F95" t="str">
-        <v>20/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G95" t="str">
         <v>Parent</v>
       </c>
       <c r="H95" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-IRSwap-4Y</v>
       </c>
       <c r="I95" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J95" t="str">
         <v>None</v>
@@ -4720,13 +4728,13 @@
         <v>None</v>
       </c>
       <c r="M95" t="str">
-        <v>Market.QR_LIVE.2018-03-20.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-4Y</v>
       </c>
       <c r="N95" t="str">
         <v>Rates</v>
       </c>
       <c r="O95" t="str">
-        <v>20/03/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.2">
@@ -4743,19 +4751,19 @@
         <v>Linear</v>
       </c>
       <c r="E96" t="str">
-        <v>22/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F96" t="str">
-        <v>22/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G96" t="str">
         <v>Parent</v>
       </c>
       <c r="H96" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-IRSwap-3Y</v>
       </c>
       <c r="I96" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J96" t="str">
         <v>None</v>
@@ -4767,13 +4775,13 @@
         <v>None</v>
       </c>
       <c r="M96" t="str">
-        <v>Market.QR_LIVE.2018-03-22.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-3Y</v>
       </c>
       <c r="N96" t="str">
         <v>Rates</v>
       </c>
       <c r="O96" t="str">
-        <v>22/03/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.2">
@@ -4787,22 +4795,22 @@
         <v>None</v>
       </c>
       <c r="D97" t="str">
-        <v>Default</v>
+        <v>Linear</v>
       </c>
       <c r="E97" t="str">
-        <v>24/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F97" t="str">
-        <v>24/03/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G97" t="str">
         <v>Parent</v>
       </c>
       <c r="H97" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-IRSwap-2Y</v>
       </c>
       <c r="I97" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J97" t="str">
         <v>None</v>
@@ -4814,13 +4822,13 @@
         <v>None</v>
       </c>
       <c r="M97" t="str">
-        <v>Market.QR_LIVE.2018-03-24.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-2Y</v>
       </c>
       <c r="N97" t="str">
         <v>Rates</v>
       </c>
       <c r="O97" t="str">
-        <v>24/03/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.2">
@@ -4837,19 +4845,19 @@
         <v>Linear</v>
       </c>
       <c r="E98" t="str">
-        <v>18/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F98" t="str">
-        <v>18/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G98" t="str">
         <v>Parent</v>
       </c>
       <c r="H98" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>AUD-BBR-BBSW-1Y</v>
       </c>
       <c r="I98" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J98" t="str">
         <v>None</v>
@@ -4861,13 +4869,13 @@
         <v>None</v>
       </c>
       <c r="M98" t="str">
-        <v>Market.QR_LIVE.2018-02-18.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-BBR-BBSW-1Y</v>
       </c>
       <c r="N98" t="str">
         <v>Rates</v>
       </c>
       <c r="O98" t="str">
-        <v>18/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.2">
@@ -4884,19 +4892,19 @@
         <v>Linear</v>
       </c>
       <c r="E99" t="str">
-        <v>20/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="F99" t="str">
-        <v>20/02/2018</v>
+        <v>30/03/2018</v>
       </c>
       <c r="G99" t="str">
         <v>Parent</v>
       </c>
       <c r="H99" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>AUD-IRSwap-1Y</v>
       </c>
       <c r="I99" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J99" t="str">
         <v>None</v>
@@ -4908,7 +4916,7 @@
         <v>None</v>
       </c>
       <c r="M99" t="str">
-        <v>Market.QR_LIVE.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.AUD-IRSwap-1Y</v>
       </c>
       <c r="N99" t="str">
         <v>Rates</v>
@@ -4931,19 +4939,19 @@
         <v>Linear</v>
       </c>
       <c r="E100" t="str">
-        <v>17/02/2018</v>
+        <v>26/03/2018</v>
       </c>
       <c r="F100" t="str">
-        <v>17/02/2018</v>
+        <v>26/03/2018</v>
       </c>
       <c r="G100" t="str">
         <v>Parent</v>
       </c>
       <c r="H100" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>Instrument/String=Instrument/String=Instrument/String=Instrument/String=AUD-BBR-BBSW-1M-3M-6M-1Y</v>
       </c>
       <c r="I100" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J100" t="str">
         <v>None</v>
@@ -4955,13 +4963,13 @@
         <v>None</v>
       </c>
       <c r="M100" t="str">
-        <v>Market.QR_LIVE.2018-02-17.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-BBR-BBSW-1M</v>
       </c>
       <c r="N100" t="str">
         <v>Rates</v>
       </c>
       <c r="O100" t="str">
-        <v>17/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.2">
@@ -4978,19 +4986,19 @@
         <v>Linear</v>
       </c>
       <c r="E101" t="str">
-        <v>14/02/2018</v>
+        <v>26/03/2018</v>
       </c>
       <c r="F101" t="str">
-        <v>14/02/2018</v>
+        <v>26/03/2018</v>
       </c>
       <c r="G101" t="str">
         <v>Parent</v>
       </c>
       <c r="H101" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=Instrument/String=AUD-IRSwap-1Y-2Y-3Y-4Y-5Y-6Y-7Y-8Y-9Y-10Y-15Y-20Y</v>
       </c>
       <c r="I101" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>RateVolatilityMatrix</v>
       </c>
       <c r="J101" t="str">
         <v>None</v>
@@ -5002,13 +5010,13 @@
         <v>None</v>
       </c>
       <c r="M101" t="str">
-        <v>Market.QR_LIVE.2018-02-14.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.RateVolatilityMatrix.Instrument/String=AUD-IRSwap-1Y</v>
       </c>
       <c r="N101" t="str">
         <v>Rates</v>
       </c>
       <c r="O101" t="str">
-        <v>14/02/2018</v>
+        <v>1/01/0001</v>
       </c>
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.2">
@@ -5022,22 +5030,22 @@
         <v>None</v>
       </c>
       <c r="D102" t="str">
-        <v>Linear</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E102" t="str">
-        <v>15/02/2018</v>
+        <v>22/02/2018</v>
       </c>
       <c r="F102" t="str">
-        <v>15/02/2018</v>
+        <v>22/02/2018</v>
       </c>
       <c r="G102" t="str">
         <v>Parent</v>
       </c>
       <c r="H102" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I102" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>DiscountCurve</v>
       </c>
       <c r="J102" t="str">
         <v>None</v>
@@ -5049,13 +5057,13 @@
         <v>None</v>
       </c>
       <c r="M102" t="str">
-        <v>Market.QR_LIVE.2018-02-15.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.2018-02-22.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="N102" t="str">
         <v>Rates</v>
       </c>
       <c r="O102" t="str">
-        <v>15/02/2018</v>
+        <v>22/02/2018</v>
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.2">
@@ -5069,22 +5077,22 @@
         <v>None</v>
       </c>
       <c r="D103" t="str">
-        <v>Linear</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E103" t="str">
-        <v>16/02/2018</v>
+        <v>21/02/2018</v>
       </c>
       <c r="F103" t="str">
-        <v>16/02/2018</v>
+        <v>21/02/2018</v>
       </c>
       <c r="G103" t="str">
         <v>Parent</v>
       </c>
       <c r="H103" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I103" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>DiscountCurve</v>
       </c>
       <c r="J103" t="str">
         <v>None</v>
@@ -5096,13 +5104,13 @@
         <v>None</v>
       </c>
       <c r="M103" t="str">
-        <v>Market.QR_LIVE.2018-02-16.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.2018-02-21.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="N103" t="str">
         <v>Rates</v>
       </c>
       <c r="O103" t="str">
-        <v>16/02/2018</v>
+        <v>21/02/2018</v>
       </c>
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.2">
@@ -5116,22 +5124,22 @@
         <v>None</v>
       </c>
       <c r="D104" t="str">
-        <v>Linear</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E104" t="str">
-        <v>13/02/2018</v>
+        <v>19/02/2018</v>
       </c>
       <c r="F104" t="str">
-        <v>13/02/2018</v>
+        <v>19/02/2018</v>
       </c>
       <c r="G104" t="str">
         <v>Parent</v>
       </c>
       <c r="H104" t="str">
-        <v>AUD-ASX-IR</v>
+        <v>AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I104" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>DiscountCurve</v>
       </c>
       <c r="J104" t="str">
         <v>None</v>
@@ -5143,13 +5151,13 @@
         <v>None</v>
       </c>
       <c r="M104" t="str">
-        <v>Market.QR_LIVE.2018-02-13.ExchangeTradedCurve.AUD-ASX-IR</v>
+        <v>Market.QR_LIVE.2018-02-19.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="N104" t="str">
         <v>Rates</v>
       </c>
       <c r="O104" t="str">
-        <v>13/02/2018</v>
+        <v>19/02/2018</v>
       </c>
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.2">
@@ -5163,22 +5171,22 @@
         <v>None</v>
       </c>
       <c r="D105" t="str">
-        <v>Linear</v>
+        <v>FastLinearZero</v>
       </c>
       <c r="E105" t="str">
-        <v>22/02/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="F105" t="str">
-        <v>22/02/2018</v>
+        <v>20/02/2018</v>
       </c>
       <c r="G105" t="str">
         <v>Parent</v>
       </c>
       <c r="H105" t="str">
-        <v>AUD-ASXT-IR</v>
+        <v>AUD-LIBOR-SENIOR</v>
       </c>
       <c r="I105" t="str">
-        <v>ExchangeTradedCurve</v>
+        <v>DiscountCurve</v>
       </c>
       <c r="J105" t="str">
         <v>None</v>
@@ -5190,13 +5198,13 @@
         <v>None</v>
       </c>
       <c r="M105" t="str">
-        <v>Market.QR_LIVE.2018-02-22.ExchangeTradedCurve.AUD-ASXT-IR</v>
+        <v>Market.QR_LIVE.2018-02-20.DiscountCurve.AUD-LIBOR-SENIOR</v>
       </c>
       <c r="N105" t="str">
         <v>Rates</v>
       </c>
       <c r="O105" t="str">
-        <v>22/02/2018</v>
+        <v>20/02/2018</v>
       </c>
     </row>
   </sheetData>
